--- a/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,6 +1557,42 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2019/04/19/5-kluczowych-bolaczek-polskiego-nauczyciela-i-5-pomyslow-na-ich-rozwiazanie/</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Karolina Olejak</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/05/15/zamiastkongresu-kim-jest-kobieta-w-kosciele-katolickim/</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>O roli kobiet w Kościele w ramach cyklu #ZamiastKongresu</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/09/15/efektywny-transport-czy-dystrybucja-prestizu-czy-polskie-miasta-potrzebuja-metra/</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Leszek Wiśniewski o kierunku w jakim powinniśmy budować system transportowy w polskich miastach</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,6 +1009,42 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2018/10/25/newag-i-pesa-polscy-producenci-wobec-wyzwan-swiatowego-rynku/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Maciej Dulak</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2019/12/11/jak-uratowac-klimat-i-nie-wysadzic-europy/</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Wojciech Jakóbik</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/04/polakow-nie-stac-jeszcze-na-samochody-elektryczne-zamiast-rozdawac-pieniadze-najbogatszym-wspierajmy-elektryczne-taksowki-lub-auta-dostawcze/</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Maria Sobuniewska rozmawia z Bartoszem Piłatem o efektywnych sposobach wspierania elektromobilności</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,6 +1045,154 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://facebook.com/Pressje</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/1_procent_dla_klubu_jagiellonskiego/</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2019/06/15/hanza-2-0-czy-sojusz-panstw-polnocy-zapowiada-przewartosciowanie-w-europejskich-relacjach/</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Franciszek Łoskot</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2019/07/15/e-chaos-polska-unia-i-podpisy-elektroniczne/</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Bartosz Paszcza</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2019/12/06/milert-czy-lwow-stanie-sie-drugim-krakowem-video/</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>W najnowszym KluboTygodniku Magdalena Milert opowiada turystyfikacji Krakowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://twitter.com/klubjagiellonsk</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/KJagiellonski/</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2019/05/13/szkodliwy-projekt-polaka-katolika-wokol-krolestwa-nie-z-tego-swiata-tomasza-rowinskiego/</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Konstanty Pilawa w eseju z najnowszego numeru „Pressji” pt. „Niech żyje Polska Ludowa!”</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/05/29/ziemkiewicz-michnik-ordo-iuris-spiewak-i-kaczynski-czyli-festiwal-hipokryzji-video/</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>W nowym odcinku „KluboTygodnika” Piotr Trudnowski opowiada o podwójnych standardach w polskiej debacie publicznej stosowanych głównie przez lewicę i liberałów</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/06/04/zamiastkongresu-cien-prl-u-w-polskim-kosciele-cenckiewicz-isakowicz-zaleski-wons/</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Czy to możliwe, że komuniści święcą triumfy zza grobu? Zapraszamy na spotkanie w pon. 07.06 o godz. 19.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2019/11/27/chile-od-pinocheta-do-konca-neoliberalizmu-wideo/</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>W najnowszym KluboTygodniku Andrzej Kohut mierzy się z dziedzictwem Augusto Pinocheta</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/07/01/nowy-lad-i-akcjonariat-pracowniczy-czy-polscy-pracownicy-powinni-stac-sie-wspolwlascicielami-firm-w-ktorych-pracuja/</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Weronika Dumin o tym, że dodatkiem do wynagrodzenia powinna zostać możliwość uczestnictwa w programach akcyjnych</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/16/ani-dla-sondazy-ani-dla-symbolicznej-powtorki-gestu-brata-kaczynski-pojechal-do-kijowa-bo-chce-przelamac-geograficzne-fatum-video/</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Piotr Trudnowski w najnowszym KluboTygodniku komentuje wyprawę polskich polityków oraz premierów Czech i Słowenii do Kijowa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,6 +1193,42 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2019/09/14/liberalny-jezyk-uprawnien-jest-do-wyrzucenia/</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Michał Rzeczycki w eseju z najnowszego numeru „Pressji” pt. „Nowa Pruderia”</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2020/03/07/duda-zdymisjonowal-kurskiego-sukces-ogromny-choc-kampanijne-korzysci-watpliwe/</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Piotr Trudnowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2020/06/19/szymon-holownia-pigulka-programowa-czula-narracja-skrojona-na-miare-swiadomej-prezydentury/</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Piotr Trudnowski</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,6 +1229,466 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="" onclick="</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Zamknij</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="" role="</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Zamknij</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href=""&gt;&lt;i class="</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Klub Jagielloński</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/category/english/"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Po angielsku</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/category/spiecie/"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Spięcie</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/czytaj-regularnie/"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Czytaj regularnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Kontakt dla mediów</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/ludzie/"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ludzie</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/wesprzyj-nas/"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wesprzyj nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://facebook.com/Pressje"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/1_procent_dla_klubu_jagiellonskiego/"</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2016/11/19/dlaczego-wierzymy-w-inny-uniwersytet/"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Zamiast kolejnej diagnozy jak źle jest - propozycja uzdrowienia sytuacji.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2018/09/10/swiat-nie-kreci-sie-wokol-kaczynskiego-odpowiadamy-piotrowi-semce/"</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Krzysztof Mazur, Piotr Trudnowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2020/10/07/urzad-ochrony-konkurencji-i-konsumentow-chce-byc-coraz-wiekszy-i-coraz-silniejszy/"</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Patryk Słowik o nowym prezesie Urzędu Ochrony Konkurencji i Konsumentów</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2020/11/02/prezydentura-bidena-bylaby-bardziej-kontynuacja-niz-zmiana-polityki-usa-wobec-polski/"</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Tomasz Synowiec rozmawia z dr. Tomaszem Pugacewiczem o wizji prezydentury Joe Bidena</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/kalkulator-darowizn/"</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Kalkulator darowizn</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/"</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>O Klubie Jagiellońskim</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/about-the-jagiellonian-club-english/"</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>About the Jagiellonian Club [ENGLISH]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/dane-dokumenty-i-sprawozdania/"</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dane, dokumenty i sprawozdania</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/krotka-historia/"</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Krótka historia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/gdansk/"</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Gdańsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/katowice/"</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Katowice</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/krakow/"</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Kraków</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/oddzial-wroclaw/"</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wrocław</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/poznan/"</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Poznań</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/warszawa/"</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Warszawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/polityka-prywatnosci-i-regulamin/"</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Polityka prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/akademia-nowoczesnego-patriotyzmu/"</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Akademia Nowoczesnego Patriotyzmu</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/aplikacja-pola/"</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Aplikacja Pola</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/centrum-analiz/"</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Centrum Analiz KJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/lokalna-osr/"</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Lokalna OSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/nawigator-legislacyjny-narzedzie-wsparcia-dla-biznesu/"</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Nawigator legislacyjny - narzędzie wsparcia dla biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/noc-ksiazki/"</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Noc książki</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/oferta-biznesowa-centrum-analiz-klubu-jagiellonskiego/"</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Oferta dla biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/pressje/"</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pressje</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/v4-and-germany-round-table/"</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>V4 and Germany Round Table</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/zbiorka/wesprzyj-nas/"</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Wspieram</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://twitter.com/klubjagiellonsk"</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.facebook.com/KJagiellonski/"</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,6 +1689,42 @@
       </c>
       <c r="B108" t="inlineStr"/>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2019/01/09/dla-strefy-euro-nie-widac-lekarstwa/"</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Piotr Łasak</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2021/04/19/sarkozy-skazany-a-macron-oslabiony-jak-wyglada-francuska-polityka-na-rok-przed-wyborami/"</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Tomasz Synowiec przedstawia stan debaty politycznej we Francji</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2021/06/29/mozemy-sobie-wmawiac-ze-plec-to-kwestia-wyboru-a-kobiecosc-zalezy-od-kulturowych-okolicznosci-jedno-przeczy-tej-logice-macierzynstwo/"</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>W wywiadzie z książki „To my wychowamy Kościół” Magdalena Kędzierska-Zaporowska rozmawia z Weroniką Kostrzewą</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
+++ b/database/httpsklubjagiellonskiplkategoriapublikacjipressje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,6 +1725,54 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2018/12/12/przebijanie-baniek-boli-dlaczego-sienkiewicz-dlaczego-zawisza/</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Rafał Gawlikowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2020/06/15/musimy-walczyc-w-brukseli-zeby-ukraina-i-gruzja-mialy-szanse-dolaczyc-do-ue/</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Adam Balcer o rozszerzeniu UE na Wschód w kontekście polskiej racji stanu</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2020/08/25/chinsko-niemieckie-malzenstwo-wbrew-woli/</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Konrad Popławski o rosnącej przewadze Państwa Środka w relacji z Niemcami</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/projekty/forum-polsko-czeskie-2022/</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Forum Polsko-Czeskie 2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
